--- a/Japan_Vacation_2026.xlsx
+++ b/Japan_Vacation_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pekep\OneDrive\Project\Python\TaskManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C456EF-DFD1-477C-9CE6-C08C21B70644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4EF8E-11D3-4E04-A525-FBE04735EF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="638" windowWidth="10365" windowHeight="13642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="638" windowWidth="12037" windowHeight="11047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Task Name</t>
   </si>
@@ -107,6 +107,27 @@
   </si>
   <si>
     <t>Move_0317</t>
+  </si>
+  <si>
+    <t>Hotel Check In</t>
+  </si>
+  <si>
+    <t>Hotel_IN_0317</t>
+  </si>
+  <si>
+    <t>京都チームラボ</t>
+  </si>
+  <si>
+    <t>TeamLab</t>
+  </si>
+  <si>
+    <t>京都 寺巡り</t>
+  </si>
+  <si>
+    <t>Kyoto_0318</t>
+  </si>
+  <si>
+    <t>Temple</t>
   </si>
 </sst>
 </file>
@@ -463,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -474,7 +495,7 @@
     <col min="1" max="1" width="25.06640625" customWidth="1"/>
     <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.06640625" customWidth="1"/>
-    <col min="4" max="4" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.9296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -558,23 +579,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>46100.4375</v>
+        <v>46097.708333333336</v>
       </c>
       <c r="D4" s="3">
-        <v>46100.75</v>
+        <v>46097.791666666664</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -582,23 +605,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
-        <v>46110.774305555555</v>
+        <v>46097.791666666664</v>
       </c>
       <c r="D5" s="3">
-        <v>46111.489583333336</v>
+        <v>46098.375</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -606,23 +631,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
-        <v>46110.666666666664</v>
+        <v>46098.416666666664</v>
       </c>
       <c r="D6" s="3">
-        <v>46110.694444444445</v>
+        <v>46098.583333333336</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
@@ -632,25 +655,23 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>46097.708333333336</v>
+        <v>46098.625</v>
       </c>
       <c r="D7" s="3">
-        <v>46097.791666666664</v>
+        <v>46098.666666666664</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -658,25 +679,23 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
-        <v>46097.791666666664</v>
+        <v>46098.916666666664</v>
       </c>
       <c r="D8" s="3">
-        <v>46098.375</v>
+        <v>46098.875</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
@@ -684,67 +703,101 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
-        <v>46098.416666666664</v>
+        <v>46099</v>
       </c>
       <c r="D9" s="3">
-        <v>46098.583333333336</v>
+        <v>46099.875</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46100.4375</v>
+      </c>
+      <c r="D10" s="3">
+        <v>46100.75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>46110.774305555555</v>
+      </c>
+      <c r="D11" s="3">
+        <v>46111.489583333336</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>46110.666666666664</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46110.694444444445</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Japan_Vacation_2026.xlsx
+++ b/Japan_Vacation_2026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pekep\OneDrive\Project\Python\TaskManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/TaskManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4EF8E-11D3-4E04-A525-FBE04735EF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{0DE07F60-F323-4550-ABFC-EC3934AB7846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F6F7C9-90C6-4068-B488-DA0F3BFC61B5}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="638" windowWidth="12037" windowHeight="11047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Task Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>WS81</t>
   </si>
   <si>
-    <t>Nintendo ミュージアム</t>
-  </si>
-  <si>
     <t>Nintendo</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>From Calgary to Vancouver</t>
   </si>
   <si>
-    <t>Dinner</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
@@ -109,31 +103,64 @@
     <t>Move_0317</t>
   </si>
   <si>
-    <t>Hotel Check In</t>
-  </si>
-  <si>
     <t>Hotel_IN_0317</t>
   </si>
   <si>
-    <t>京都チームラボ</t>
-  </si>
-  <si>
     <t>TeamLab</t>
   </si>
   <si>
-    <t>京都 寺巡り</t>
-  </si>
-  <si>
-    <t>Kyoto_0318</t>
-  </si>
-  <si>
     <t>Temple</t>
+  </si>
+  <si>
+    <t>Hotel_0317</t>
+  </si>
+  <si>
+    <t>Hotel Keihan Kyoto Hachijoguchi Check In</t>
+  </si>
+  <si>
+    <t>Hotel_0320</t>
+  </si>
+  <si>
+    <t>Tour_0318</t>
+  </si>
+  <si>
+    <t>夕食 @成田空港</t>
+  </si>
+  <si>
+    <t>京都チームラボ @京都</t>
+  </si>
+  <si>
+    <t>Hotel Keihan Kyoto Hachijoguchi @京都</t>
+  </si>
+  <si>
+    <t>VELTRA 京都ツアー @京都</t>
+  </si>
+  <si>
+    <t>Nintendo ミュージアム @京都</t>
+  </si>
+  <si>
+    <t>Piazza Hotel Nara @奈良</t>
+  </si>
+  <si>
+    <t>奈良観光 @奈良</t>
+  </si>
+  <si>
+    <t>Visit_0320</t>
+  </si>
+  <si>
+    <t>奈良観光(午前) @奈良</t>
+  </si>
+  <si>
+    <t>Visit_0321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d\ h:mm\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,9 +206,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +231,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,20 +522,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.06640625" customWidth="1"/>
+    <col min="1" max="1" width="37.86328125" customWidth="1"/>
     <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.06640625" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.796875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,10 +545,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -529,15 +566,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>46096.34375</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>46096.450694444444</v>
       </c>
       <c r="E2" s="2">
@@ -553,15 +590,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>46096.579861111109</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>46097.729166666664</v>
       </c>
       <c r="E3" s="2">
@@ -579,15 +616,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>46097.708333333336</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>46097.791666666664</v>
       </c>
       <c r="E4" s="2">
@@ -597,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -605,25 +642,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5">
+        <v>46097.791666666664</v>
+      </c>
+      <c r="D5" s="5">
+        <v>46098.375</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3">
-        <v>46097.791666666664</v>
-      </c>
-      <c r="D5" s="3">
-        <v>46098.375</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -631,15 +668,15 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
         <v>46098.416666666664</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>46098.583333333336</v>
       </c>
       <c r="E6" s="2">
@@ -655,15 +692,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
         <v>46098.625</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>46098.666666666664</v>
       </c>
       <c r="E7" s="2">
@@ -671,31 +708,30 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
+      <c r="A8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3">
-        <v>46098.916666666664</v>
-      </c>
-      <c r="D8" s="3">
-        <v>46098.875</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>46098.666666666664</v>
+      </c>
+      <c r="D8" s="5">
+        <v>46101.444444444445</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
@@ -703,23 +739,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3">
-        <v>46099</v>
-      </c>
-      <c r="D9" s="3">
-        <v>46099.875</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
+        <v>46098.708333333336</v>
+      </c>
+      <c r="D9" s="5">
+        <v>46098.875</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>8</v>
@@ -727,23 +765,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>46100.4375</v>
-      </c>
-      <c r="D10" s="3">
-        <v>46100.75</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="5">
+        <v>46099.378472222219</v>
+      </c>
+      <c r="D10" s="5">
+        <v>46099.746527777781</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>8</v>
@@ -751,23 +788,23 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3">
-        <v>46110.774305555555</v>
-      </c>
-      <c r="D11" s="3">
-        <v>46111.489583333336</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>46100.416666666664</v>
+      </c>
+      <c r="D11" s="5">
+        <v>46100.75</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
@@ -775,31 +812,130 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5">
+        <v>46101.583333333336</v>
+      </c>
+      <c r="D12" s="5">
+        <v>46102.416666666664</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5">
+        <v>46101.416666666664</v>
+      </c>
+      <c r="D13" s="5">
+        <v>46101.708333333336</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C14" s="5">
         <v>46110.666666666664</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D14" s="5">
         <v>46110.694444444445</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>46110.774305555555</v>
+      </c>
+      <c r="D15" s="5">
+        <v>46111.489583333336</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5">
+        <v>46102.375</v>
+      </c>
+      <c r="D16" s="5">
+        <v>46102.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
+    <sortCondition ref="C2:C15"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Japan_Vacation_2026.xlsx
+++ b/Japan_Vacation_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d78e2062db64e14/Project/Python/TaskManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{0DE07F60-F323-4550-ABFC-EC3934AB7846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F6F7C9-90C6-4068-B488-DA0F3BFC61B5}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{0DE07F60-F323-4550-ABFC-EC3934AB7846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{524E67A4-7119-4C73-986C-18630E15F26E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="2258" windowWidth="12038" windowHeight="11047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Task Name</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Visit_0321</t>
+  </si>
+  <si>
+    <t>BCAA 保険購入</t>
+  </si>
+  <si>
+    <t>Ins</t>
+  </si>
+  <si>
+    <t>Insurance</t>
   </si>
 </sst>
 </file>
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -932,6 +941,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6">
+        <v>46024</v>
+      </c>
+      <c r="D17" s="6">
+        <v>46032</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
     <sortCondition ref="C2:C15"/>
